--- a/data/ESLO/all_selected_data/qui_questions.xlsx
+++ b/data/ESLO/all_selected_data/qui_questions.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5138F69-28F0-2E4B-8331-2B41FF5EC96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006DB238-E46C-154C-9FB4-46D81DDD0B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38640" yWindow="-10260" windowWidth="47260" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="111" r:id="rId2"/>
-    <pivotCache cacheId="116" r:id="rId3"/>
+    <pivotCache cacheId="18" r:id="rId2"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -7279,6 +7279,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13032671422818268"/>
+                  <c:y val="0.20485511553432664"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -7320,7 +7326,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="inEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -7328,6 +7334,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4FC6-3442-B8F1-549D3A4CCFAC}"/>
                 </c:ext>
@@ -7444,20 +7451,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$V$25:$X$28</c:f>
+              <c:f>Sheet1!$V$26:$X$28</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>SV</c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VS</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -7469,9 +7473,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -7485,29 +7486,23 @@
                   <c:pt idx="2">
                     <c:v>quiS</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>quiS</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$25:$Y$28</c:f>
+              <c:f>Sheet1!$Y$26:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>167</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8110,20 +8105,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AI$25:$AK$28</c:f>
+              <c:f>Sheet1!$AI$26:$AK$28</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>SV</c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VS</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -8135,9 +8127,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -8151,29 +8140,23 @@
                   <c:pt idx="2">
                     <c:v>qui non-S</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>qui non-S</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$25:$AL$28</c:f>
+              <c:f>Sheet1!$AL$26:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -9309,20 +9292,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$X$71:$Z$74</c:f>
+              <c:f>Sheet1!$X$72:$Z$74</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>SV</c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VS</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9334,9 +9314,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9350,29 +9327,23 @@
                   <c:pt idx="2">
                     <c:v>quiS</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>quiS</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$71:$AA$74</c:f>
+              <c:f>Sheet1!$AA$72:$AA$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -9975,20 +9946,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AN$71:$AP$74</c:f>
+              <c:f>Sheet1!$AN$72:$AP$74</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>SV</c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VS</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -10000,9 +9968,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -10016,29 +9981,23 @@
                   <c:pt idx="2">
                     <c:v>qui non-S</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>qui non-S</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$71:$AQ$74</c:f>
+              <c:f>Sheet1!$AQ$72:$AQ$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
@@ -21731,7 +21690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA3542DF-DB82-8045-A685-12CF47DBEFF7}" name="PivotTable6" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA3542DF-DB82-8045-A685-12CF47DBEFF7}" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M5:N30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -21872,7 +21831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D7791F7-B511-CF48-B124-7CBCBDF41D14}" name="PivotTable7" cacheId="116" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D7791F7-B511-CF48-B124-7CBCBDF41D14}" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M53:N75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -22326,8 +22285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="AF57" zoomScale="110" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
